--- a/data/dispersal/Dalton_spp_distance_2021_raw.xlsx
+++ b/data/dispersal/Dalton_spp_distance_2021_raw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Flammabllity/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Flammabllity/data/dispersal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E72FE61-AB80-1F43-B4C0-D97853542AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA1A582-1696-AE4D-B3BB-E98429FF51CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{5CB5EA5D-90A9-6B48-9766-250200053600}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="39">
   <si>
     <t>Site</t>
   </si>
@@ -114,96 +114,6 @@
     <t>55_3</t>
   </si>
   <si>
-    <t>55_4</t>
-  </si>
-  <si>
-    <t>55_5</t>
-  </si>
-  <si>
-    <t>55_6</t>
-  </si>
-  <si>
-    <t>55_7</t>
-  </si>
-  <si>
-    <t>55_8</t>
-  </si>
-  <si>
-    <t>55_9</t>
-  </si>
-  <si>
-    <t>55_10</t>
-  </si>
-  <si>
-    <t>55_11</t>
-  </si>
-  <si>
-    <t>55_12</t>
-  </si>
-  <si>
-    <t>55_13</t>
-  </si>
-  <si>
-    <t>55_14</t>
-  </si>
-  <si>
-    <t>55_15</t>
-  </si>
-  <si>
-    <t>55_16</t>
-  </si>
-  <si>
-    <t>55_17</t>
-  </si>
-  <si>
-    <t>55_18</t>
-  </si>
-  <si>
-    <t>55_19</t>
-  </si>
-  <si>
-    <t>55_20</t>
-  </si>
-  <si>
-    <t>55_21</t>
-  </si>
-  <si>
-    <t>55_22</t>
-  </si>
-  <si>
-    <t>55_23</t>
-  </si>
-  <si>
-    <t>55_24</t>
-  </si>
-  <si>
-    <t>55_25</t>
-  </si>
-  <si>
-    <t>55_26</t>
-  </si>
-  <si>
-    <t>55_27</t>
-  </si>
-  <si>
-    <t>55_28</t>
-  </si>
-  <si>
-    <t>55_29</t>
-  </si>
-  <si>
-    <t>55_30</t>
-  </si>
-  <si>
-    <t>55_31</t>
-  </si>
-  <si>
-    <t>55_32</t>
-  </si>
-  <si>
-    <t>55_33</t>
-  </si>
-  <si>
     <t>15_3</t>
   </si>
   <si>
@@ -238,123 +148,6 @@
   </si>
   <si>
     <t>57_2</t>
-  </si>
-  <si>
-    <t>57_3</t>
-  </si>
-  <si>
-    <t>57_4</t>
-  </si>
-  <si>
-    <t>57_5</t>
-  </si>
-  <si>
-    <t>57_6</t>
-  </si>
-  <si>
-    <t>57_7</t>
-  </si>
-  <si>
-    <t>57_8</t>
-  </si>
-  <si>
-    <t>57_9</t>
-  </si>
-  <si>
-    <t>57_10</t>
-  </si>
-  <si>
-    <t>57_11</t>
-  </si>
-  <si>
-    <t>57_12</t>
-  </si>
-  <si>
-    <t>57_13</t>
-  </si>
-  <si>
-    <t>57_14</t>
-  </si>
-  <si>
-    <t>57_15</t>
-  </si>
-  <si>
-    <t>57_16</t>
-  </si>
-  <si>
-    <t>57_17</t>
-  </si>
-  <si>
-    <t>57_18</t>
-  </si>
-  <si>
-    <t>57_19</t>
-  </si>
-  <si>
-    <t>57_20</t>
-  </si>
-  <si>
-    <t>57_21</t>
-  </si>
-  <si>
-    <t>57_22</t>
-  </si>
-  <si>
-    <t>57_23</t>
-  </si>
-  <si>
-    <t>57_24</t>
-  </si>
-  <si>
-    <t>57_25</t>
-  </si>
-  <si>
-    <t>57_26</t>
-  </si>
-  <si>
-    <t>57_27</t>
-  </si>
-  <si>
-    <t>57_28</t>
-  </si>
-  <si>
-    <t>57_29</t>
-  </si>
-  <si>
-    <t>57_30</t>
-  </si>
-  <si>
-    <t>57_31</t>
-  </si>
-  <si>
-    <t>57_32</t>
-  </si>
-  <si>
-    <t>57_33</t>
-  </si>
-  <si>
-    <t>57_34</t>
-  </si>
-  <si>
-    <t>57_35</t>
-  </si>
-  <si>
-    <t>57_36</t>
-  </si>
-  <si>
-    <t>57_37</t>
-  </si>
-  <si>
-    <t>57_38</t>
-  </si>
-  <si>
-    <t>57_39</t>
-  </si>
-  <si>
-    <t>57_40</t>
-  </si>
-  <si>
-    <t>57_41</t>
   </si>
   <si>
     <t>47_2</t>
@@ -725,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23B7D3A-7E88-CB41-9E7B-E5294CBBCD25}">
   <dimension ref="A1:H876"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K873" sqref="K873"/>
+    <sheetView tabSelected="1" topLeftCell="A839" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F832" sqref="F832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7961,7 +7754,7 @@
         <v>8</v>
       </c>
       <c r="B315" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C315">
         <v>3</v>
@@ -7984,7 +7777,7 @@
         <v>8</v>
       </c>
       <c r="B316" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C316">
         <v>3</v>
@@ -8007,7 +7800,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C317">
         <v>3</v>
@@ -8030,7 +7823,7 @@
         <v>8</v>
       </c>
       <c r="B318" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C318">
         <v>3</v>
@@ -8053,7 +7846,7 @@
         <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C319">
         <v>3</v>
@@ -8076,7 +7869,7 @@
         <v>8</v>
       </c>
       <c r="B320" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C320">
         <v>3</v>
@@ -8099,7 +7892,7 @@
         <v>8</v>
       </c>
       <c r="B321" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -8122,7 +7915,7 @@
         <v>8</v>
       </c>
       <c r="B322" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C322">
         <v>3</v>
@@ -8145,7 +7938,7 @@
         <v>8</v>
       </c>
       <c r="B323" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C323">
         <v>3</v>
@@ -8168,7 +7961,7 @@
         <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C324">
         <v>3</v>
@@ -8191,7 +7984,7 @@
         <v>8</v>
       </c>
       <c r="B325" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C325">
         <v>3</v>
@@ -8214,7 +8007,7 @@
         <v>8</v>
       </c>
       <c r="B326" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C326">
         <v>3</v>
@@ -8237,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="B327" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C327">
         <v>3</v>
@@ -8260,7 +8053,7 @@
         <v>8</v>
       </c>
       <c r="B328" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C328">
         <v>3</v>
@@ -8283,7 +8076,7 @@
         <v>8</v>
       </c>
       <c r="B329" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C329">
         <v>3</v>
@@ -8306,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="B330" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C330">
         <v>3</v>
@@ -8329,7 +8122,7 @@
         <v>8</v>
       </c>
       <c r="B331" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C331">
         <v>3</v>
@@ -8352,7 +8145,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C332">
         <v>3</v>
@@ -8375,7 +8168,7 @@
         <v>8</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C333">
         <v>3</v>
@@ -8398,7 +8191,7 @@
         <v>8</v>
       </c>
       <c r="B334" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C334">
         <v>3</v>
@@ -8421,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="B335" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C335">
         <v>3</v>
@@ -8444,7 +8237,7 @@
         <v>8</v>
       </c>
       <c r="B336" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C336">
         <v>3</v>
@@ -8467,7 +8260,7 @@
         <v>8</v>
       </c>
       <c r="B337" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C337">
         <v>3</v>
@@ -8490,7 +8283,7 @@
         <v>8</v>
       </c>
       <c r="B338" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C338">
         <v>3</v>
@@ -8513,7 +8306,7 @@
         <v>8</v>
       </c>
       <c r="B339" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C339">
         <v>3</v>
@@ -8536,7 +8329,7 @@
         <v>8</v>
       </c>
       <c r="B340" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C340">
         <v>3</v>
@@ -8559,7 +8352,7 @@
         <v>8</v>
       </c>
       <c r="B341" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C341">
         <v>3</v>
@@ -8582,7 +8375,7 @@
         <v>8</v>
       </c>
       <c r="B342" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C342">
         <v>3</v>
@@ -8605,7 +8398,7 @@
         <v>8</v>
       </c>
       <c r="B343" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C343">
         <v>3</v>
@@ -8628,7 +8421,7 @@
         <v>8</v>
       </c>
       <c r="B344" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C344">
         <v>3</v>
@@ -8651,7 +8444,7 @@
         <v>8</v>
       </c>
       <c r="B345" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C345">
         <v>3</v>
@@ -8674,7 +8467,7 @@
         <v>8</v>
       </c>
       <c r="B346" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C346">
         <v>3</v>
@@ -8697,7 +8490,7 @@
         <v>8</v>
       </c>
       <c r="B347" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C347">
         <v>3</v>
@@ -8720,7 +8513,7 @@
         <v>8</v>
       </c>
       <c r="B348" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C348">
         <v>3</v>
@@ -8743,7 +8536,7 @@
         <v>8</v>
       </c>
       <c r="B349" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C349">
         <v>3</v>
@@ -8766,7 +8559,7 @@
         <v>8</v>
       </c>
       <c r="B350" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C350">
         <v>3</v>
@@ -8789,7 +8582,7 @@
         <v>8</v>
       </c>
       <c r="B351" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C351">
         <v>3</v>
@@ -8812,7 +8605,7 @@
         <v>8</v>
       </c>
       <c r="B352" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -8835,7 +8628,7 @@
         <v>8</v>
       </c>
       <c r="B353" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C353">
         <v>3</v>
@@ -8858,7 +8651,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C354">
         <v>3</v>
@@ -8881,7 +8674,7 @@
         <v>8</v>
       </c>
       <c r="B355" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C355">
         <v>3</v>
@@ -8904,7 +8697,7 @@
         <v>8</v>
       </c>
       <c r="B356" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C356">
         <v>3</v>
@@ -8927,7 +8720,7 @@
         <v>8</v>
       </c>
       <c r="B357" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C357">
         <v>3</v>
@@ -8950,7 +8743,7 @@
         <v>8</v>
       </c>
       <c r="B358" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C358">
         <v>3</v>
@@ -8973,7 +8766,7 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C359">
         <v>3</v>
@@ -8996,7 +8789,7 @@
         <v>8</v>
       </c>
       <c r="B360" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C360">
         <v>3</v>
@@ -9019,7 +8812,7 @@
         <v>8</v>
       </c>
       <c r="B361" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C361">
         <v>3</v>
@@ -9042,7 +8835,7 @@
         <v>8</v>
       </c>
       <c r="B362" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C362">
         <v>3</v>
@@ -9065,7 +8858,7 @@
         <v>8</v>
       </c>
       <c r="B363" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C363">
         <v>3</v>
@@ -9088,7 +8881,7 @@
         <v>8</v>
       </c>
       <c r="B364" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C364">
         <v>3</v>
@@ -9111,7 +8904,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C365">
         <v>3</v>
@@ -9134,7 +8927,7 @@
         <v>8</v>
       </c>
       <c r="B366" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C366">
         <v>3</v>
@@ -9157,7 +8950,7 @@
         <v>8</v>
       </c>
       <c r="B367" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C367">
         <v>3</v>
@@ -9180,7 +8973,7 @@
         <v>8</v>
       </c>
       <c r="B368" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C368">
         <v>3</v>
@@ -9203,7 +8996,7 @@
         <v>8</v>
       </c>
       <c r="B369" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C369">
         <v>3</v>
@@ -9226,7 +9019,7 @@
         <v>8</v>
       </c>
       <c r="B370" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C370">
         <v>3</v>
@@ -9249,7 +9042,7 @@
         <v>8</v>
       </c>
       <c r="B371" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C371">
         <v>3</v>
@@ -9272,7 +9065,7 @@
         <v>8</v>
       </c>
       <c r="B372" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C372">
         <v>3</v>
@@ -9295,7 +9088,7 @@
         <v>8</v>
       </c>
       <c r="B373" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C373">
         <v>3</v>
@@ -9318,7 +9111,7 @@
         <v>8</v>
       </c>
       <c r="B374" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C374">
         <v>3</v>
@@ -9341,7 +9134,7 @@
         <v>8</v>
       </c>
       <c r="B375" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C375">
         <v>3</v>
@@ -9364,7 +9157,7 @@
         <v>8</v>
       </c>
       <c r="B376" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C376">
         <v>3</v>
@@ -9387,7 +9180,7 @@
         <v>8</v>
       </c>
       <c r="B377" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C377">
         <v>3</v>
@@ -9410,7 +9203,7 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C378">
         <v>3</v>
@@ -9433,7 +9226,7 @@
         <v>8</v>
       </c>
       <c r="B379" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -9456,7 +9249,7 @@
         <v>8</v>
       </c>
       <c r="B380" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C380">
         <v>3</v>
@@ -9479,7 +9272,7 @@
         <v>8</v>
       </c>
       <c r="B381" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C381">
         <v>3</v>
@@ -9502,7 +9295,7 @@
         <v>8</v>
       </c>
       <c r="B382" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C382">
         <v>3</v>
@@ -9525,7 +9318,7 @@
         <v>8</v>
       </c>
       <c r="B383" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C383">
         <v>3</v>
@@ -9548,7 +9341,7 @@
         <v>8</v>
       </c>
       <c r="B384" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C384">
         <v>3</v>
@@ -9571,7 +9364,7 @@
         <v>8</v>
       </c>
       <c r="B385" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C385">
         <v>3</v>
@@ -9594,7 +9387,7 @@
         <v>8</v>
       </c>
       <c r="B386" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C386">
         <v>3</v>
@@ -9617,7 +9410,7 @@
         <v>8</v>
       </c>
       <c r="B387" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C387">
         <v>3</v>
@@ -9640,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="B388" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C388">
         <v>3</v>
@@ -9663,7 +9456,7 @@
         <v>8</v>
       </c>
       <c r="B389" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C389">
         <v>3</v>
@@ -9686,7 +9479,7 @@
         <v>8</v>
       </c>
       <c r="B390" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C390">
         <v>3</v>
@@ -9709,7 +9502,7 @@
         <v>8</v>
       </c>
       <c r="B391" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C391">
         <v>3</v>
@@ -9732,7 +9525,7 @@
         <v>8</v>
       </c>
       <c r="B392" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C392">
         <v>3</v>
@@ -9755,7 +9548,7 @@
         <v>8</v>
       </c>
       <c r="B393" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C393">
         <v>3</v>
@@ -9778,7 +9571,7 @@
         <v>8</v>
       </c>
       <c r="B394" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C394">
         <v>3</v>
@@ -9801,7 +9594,7 @@
         <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C395">
         <v>3</v>
@@ -9824,7 +9617,7 @@
         <v>8</v>
       </c>
       <c r="B396" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C396">
         <v>3</v>
@@ -9847,7 +9640,7 @@
         <v>8</v>
       </c>
       <c r="B397" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C397">
         <v>3</v>
@@ -9870,7 +9663,7 @@
         <v>8</v>
       </c>
       <c r="B398" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C398">
         <v>3</v>
@@ -9893,7 +9686,7 @@
         <v>8</v>
       </c>
       <c r="B399" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C399">
         <v>3</v>
@@ -9916,7 +9709,7 @@
         <v>8</v>
       </c>
       <c r="B400" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C400">
         <v>3</v>
@@ -9939,7 +9732,7 @@
         <v>8</v>
       </c>
       <c r="B401" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C401">
         <v>3</v>
@@ -9962,7 +9755,7 @@
         <v>8</v>
       </c>
       <c r="B402" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C402">
         <v>3</v>
@@ -9985,7 +9778,7 @@
         <v>8</v>
       </c>
       <c r="B403" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C403">
         <v>3</v>
@@ -10008,7 +9801,7 @@
         <v>8</v>
       </c>
       <c r="B404" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C404">
         <v>3</v>
@@ -10031,7 +9824,7 @@
         <v>8</v>
       </c>
       <c r="B405" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C405">
         <v>3</v>
@@ -10054,7 +9847,7 @@
         <v>8</v>
       </c>
       <c r="B406" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C406">
         <v>3</v>
@@ -10077,7 +9870,7 @@
         <v>8</v>
       </c>
       <c r="B407" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -10100,7 +9893,7 @@
         <v>8</v>
       </c>
       <c r="B408" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -10123,7 +9916,7 @@
         <v>8</v>
       </c>
       <c r="B409" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -10146,7 +9939,7 @@
         <v>8</v>
       </c>
       <c r="B410" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -10169,7 +9962,7 @@
         <v>8</v>
       </c>
       <c r="B411" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -10192,7 +9985,7 @@
         <v>8</v>
       </c>
       <c r="B412" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -10215,7 +10008,7 @@
         <v>8</v>
       </c>
       <c r="B413" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C413">
         <v>1</v>
@@ -10238,7 +10031,7 @@
         <v>8</v>
       </c>
       <c r="B414" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C414">
         <v>1</v>
@@ -10261,7 +10054,7 @@
         <v>8</v>
       </c>
       <c r="B415" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C415">
         <v>1</v>
@@ -10284,7 +10077,7 @@
         <v>8</v>
       </c>
       <c r="B416" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -10307,7 +10100,7 @@
         <v>8</v>
       </c>
       <c r="B417" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C417">
         <v>1</v>
@@ -10330,7 +10123,7 @@
         <v>8</v>
       </c>
       <c r="B418" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C418">
         <v>1</v>
@@ -10353,7 +10146,7 @@
         <v>8</v>
       </c>
       <c r="B419" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C419">
         <v>1</v>
@@ -10376,7 +10169,7 @@
         <v>8</v>
       </c>
       <c r="B420" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C420">
         <v>1</v>
@@ -10399,7 +10192,7 @@
         <v>8</v>
       </c>
       <c r="B421" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -10422,7 +10215,7 @@
         <v>8</v>
       </c>
       <c r="B422" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C422">
         <v>1</v>
@@ -10445,7 +10238,7 @@
         <v>8</v>
       </c>
       <c r="B423" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C423">
         <v>1</v>
@@ -10468,7 +10261,7 @@
         <v>8</v>
       </c>
       <c r="B424" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C424">
         <v>1</v>
@@ -10491,7 +10284,7 @@
         <v>8</v>
       </c>
       <c r="B425" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C425">
         <v>1</v>
@@ -10514,7 +10307,7 @@
         <v>8</v>
       </c>
       <c r="B426" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C426">
         <v>1</v>
@@ -10537,7 +10330,7 @@
         <v>8</v>
       </c>
       <c r="B427" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C427">
         <v>1</v>
@@ -10560,7 +10353,7 @@
         <v>8</v>
       </c>
       <c r="B428" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C428">
         <v>1</v>
@@ -10583,7 +10376,7 @@
         <v>8</v>
       </c>
       <c r="B429" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C429">
         <v>1</v>
@@ -10606,7 +10399,7 @@
         <v>8</v>
       </c>
       <c r="B430" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C430">
         <v>1</v>
@@ -10629,7 +10422,7 @@
         <v>8</v>
       </c>
       <c r="B431" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C431">
         <v>1</v>
@@ -10652,7 +10445,7 @@
         <v>8</v>
       </c>
       <c r="B432" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -10675,7 +10468,7 @@
         <v>8</v>
       </c>
       <c r="B433" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C433">
         <v>1</v>
@@ -10698,7 +10491,7 @@
         <v>8</v>
       </c>
       <c r="B434" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -10721,7 +10514,7 @@
         <v>8</v>
       </c>
       <c r="B435" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C435">
         <v>1</v>
@@ -10744,7 +10537,7 @@
         <v>8</v>
       </c>
       <c r="B436" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -10767,7 +10560,7 @@
         <v>8</v>
       </c>
       <c r="B437" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C437">
         <v>1</v>
@@ -10790,7 +10583,7 @@
         <v>8</v>
       </c>
       <c r="B438" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C438">
         <v>1</v>
@@ -10813,7 +10606,7 @@
         <v>8</v>
       </c>
       <c r="B439" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C439">
         <v>1</v>
@@ -10836,7 +10629,7 @@
         <v>8</v>
       </c>
       <c r="B440" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C440">
         <v>1</v>
@@ -10859,7 +10652,7 @@
         <v>8</v>
       </c>
       <c r="B441" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C441">
         <v>1</v>
@@ -10882,7 +10675,7 @@
         <v>8</v>
       </c>
       <c r="B442" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C442">
         <v>1</v>
@@ -10905,7 +10698,7 @@
         <v>8</v>
       </c>
       <c r="B443" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C443">
         <v>1</v>
@@ -10928,7 +10721,7 @@
         <v>8</v>
       </c>
       <c r="B444" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -10951,7 +10744,7 @@
         <v>8</v>
       </c>
       <c r="B445" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -10974,7 +10767,7 @@
         <v>8</v>
       </c>
       <c r="B446" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -10997,7 +10790,7 @@
         <v>8</v>
       </c>
       <c r="B447" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C447">
         <v>1</v>
@@ -11020,7 +10813,7 @@
         <v>8</v>
       </c>
       <c r="B448" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -11043,7 +10836,7 @@
         <v>8</v>
       </c>
       <c r="B449" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C449">
         <v>1</v>
@@ -11066,7 +10859,7 @@
         <v>8</v>
       </c>
       <c r="B450" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -11089,7 +10882,7 @@
         <v>8</v>
       </c>
       <c r="B451" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C451">
         <v>1</v>
@@ -11112,7 +10905,7 @@
         <v>8</v>
       </c>
       <c r="B452" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -11135,7 +10928,7 @@
         <v>8</v>
       </c>
       <c r="B453" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C453">
         <v>1</v>
@@ -11158,7 +10951,7 @@
         <v>8</v>
       </c>
       <c r="B454" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C454">
         <v>1</v>
@@ -11181,7 +10974,7 @@
         <v>8</v>
       </c>
       <c r="B455" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -11204,7 +10997,7 @@
         <v>8</v>
       </c>
       <c r="B456" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -11227,7 +11020,7 @@
         <v>8</v>
       </c>
       <c r="B457" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C457">
         <v>1</v>
@@ -11250,7 +11043,7 @@
         <v>8</v>
       </c>
       <c r="B458" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C458">
         <v>1</v>
@@ -11273,7 +11066,7 @@
         <v>8</v>
       </c>
       <c r="B459" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -11296,7 +11089,7 @@
         <v>8</v>
       </c>
       <c r="B460" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C460">
         <v>1</v>
@@ -11319,7 +11112,7 @@
         <v>8</v>
       </c>
       <c r="B461" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C461">
         <v>1</v>
@@ -11342,7 +11135,7 @@
         <v>8</v>
       </c>
       <c r="B462" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C462">
         <v>1</v>
@@ -11365,7 +11158,7 @@
         <v>8</v>
       </c>
       <c r="B463" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C463">
         <v>1</v>
@@ -11388,7 +11181,7 @@
         <v>8</v>
       </c>
       <c r="B464" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -11411,7 +11204,7 @@
         <v>8</v>
       </c>
       <c r="B465" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C465">
         <v>1</v>
@@ -11434,7 +11227,7 @@
         <v>8</v>
       </c>
       <c r="B466" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C466">
         <v>1</v>
@@ -11457,7 +11250,7 @@
         <v>8</v>
       </c>
       <c r="B467" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -11480,7 +11273,7 @@
         <v>8</v>
       </c>
       <c r="B468" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -11503,7 +11296,7 @@
         <v>8</v>
       </c>
       <c r="B469" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C469">
         <v>1</v>
@@ -11526,7 +11319,7 @@
         <v>8</v>
       </c>
       <c r="B470" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C470">
         <v>1</v>
@@ -11549,7 +11342,7 @@
         <v>8</v>
       </c>
       <c r="B471" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -11572,7 +11365,7 @@
         <v>8</v>
       </c>
       <c r="B472" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C472">
         <v>1</v>
@@ -11595,7 +11388,7 @@
         <v>8</v>
       </c>
       <c r="B473" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C473">
         <v>1</v>
@@ -11618,7 +11411,7 @@
         <v>8</v>
       </c>
       <c r="B474" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C474">
         <v>1</v>
@@ -11641,7 +11434,7 @@
         <v>8</v>
       </c>
       <c r="B475" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C475">
         <v>1</v>
@@ -11664,7 +11457,7 @@
         <v>8</v>
       </c>
       <c r="B476" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C476">
         <v>1</v>
@@ -11687,7 +11480,7 @@
         <v>8</v>
       </c>
       <c r="B477" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C477">
         <v>1</v>
@@ -11710,7 +11503,7 @@
         <v>8</v>
       </c>
       <c r="B478" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -11733,7 +11526,7 @@
         <v>8</v>
       </c>
       <c r="B479" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C479">
         <v>1</v>
@@ -11756,7 +11549,7 @@
         <v>8</v>
       </c>
       <c r="B480" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C480">
         <v>1</v>
@@ -11779,7 +11572,7 @@
         <v>8</v>
       </c>
       <c r="B481" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C481">
         <v>1</v>
@@ -11802,7 +11595,7 @@
         <v>8</v>
       </c>
       <c r="B482" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -11825,7 +11618,7 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -11848,7 +11641,7 @@
         <v>8</v>
       </c>
       <c r="B484" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C484">
         <v>1</v>
@@ -11871,7 +11664,7 @@
         <v>8</v>
       </c>
       <c r="B485" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -11894,7 +11687,7 @@
         <v>8</v>
       </c>
       <c r="B486" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C486">
         <v>1</v>
@@ -11917,7 +11710,7 @@
         <v>8</v>
       </c>
       <c r="B487" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C487">
         <v>1</v>
@@ -11940,7 +11733,7 @@
         <v>8</v>
       </c>
       <c r="B488" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C488">
         <v>1</v>
@@ -11963,7 +11756,7 @@
         <v>8</v>
       </c>
       <c r="B489" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -11986,7 +11779,7 @@
         <v>8</v>
       </c>
       <c r="B490" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C490">
         <v>1</v>
@@ -12009,7 +11802,7 @@
         <v>8</v>
       </c>
       <c r="B491" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C491">
         <v>1</v>
@@ -12032,7 +11825,7 @@
         <v>8</v>
       </c>
       <c r="B492" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C492">
         <v>1</v>
@@ -12055,7 +11848,7 @@
         <v>8</v>
       </c>
       <c r="B493" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C493">
         <v>1</v>
@@ -12078,7 +11871,7 @@
         <v>8</v>
       </c>
       <c r="B494" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C494">
         <v>1</v>
@@ -12101,7 +11894,7 @@
         <v>8</v>
       </c>
       <c r="B495" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -12124,7 +11917,7 @@
         <v>8</v>
       </c>
       <c r="B496" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C496">
         <v>1</v>
@@ -12147,7 +11940,7 @@
         <v>8</v>
       </c>
       <c r="B497" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -12170,7 +11963,7 @@
         <v>8</v>
       </c>
       <c r="B498" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C498">
         <v>1</v>
@@ -12193,7 +11986,7 @@
         <v>8</v>
       </c>
       <c r="B499" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C499">
         <v>1</v>
@@ -12216,7 +12009,7 @@
         <v>8</v>
       </c>
       <c r="B500" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C500">
         <v>1</v>
@@ -12239,7 +12032,7 @@
         <v>8</v>
       </c>
       <c r="B501" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C501">
         <v>1</v>
@@ -12262,7 +12055,7 @@
         <v>8</v>
       </c>
       <c r="B502" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C502">
         <v>1</v>
@@ -12285,7 +12078,7 @@
         <v>8</v>
       </c>
       <c r="B503" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C503">
         <v>1</v>
@@ -12308,7 +12101,7 @@
         <v>8</v>
       </c>
       <c r="B504" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C504">
         <v>1</v>
@@ -12331,7 +12124,7 @@
         <v>8</v>
       </c>
       <c r="B505" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C505">
         <v>1</v>
@@ -12354,7 +12147,7 @@
         <v>8</v>
       </c>
       <c r="B506" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C506">
         <v>1</v>
@@ -12377,7 +12170,7 @@
         <v>8</v>
       </c>
       <c r="B507" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C507">
         <v>2</v>
@@ -12400,7 +12193,7 @@
         <v>8</v>
       </c>
       <c r="B508" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C508">
         <v>2</v>
@@ -12423,7 +12216,7 @@
         <v>8</v>
       </c>
       <c r="B509" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C509">
         <v>2</v>
@@ -12446,7 +12239,7 @@
         <v>8</v>
       </c>
       <c r="B510" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C510">
         <v>2</v>
@@ -12469,7 +12262,7 @@
         <v>8</v>
       </c>
       <c r="B511" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C511">
         <v>2</v>
@@ -12492,7 +12285,7 @@
         <v>8</v>
       </c>
       <c r="B512" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C512">
         <v>2</v>
@@ -12515,7 +12308,7 @@
         <v>8</v>
       </c>
       <c r="B513" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C513">
         <v>2</v>
@@ -12538,7 +12331,7 @@
         <v>8</v>
       </c>
       <c r="B514" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C514">
         <v>2</v>
@@ -12561,7 +12354,7 @@
         <v>8</v>
       </c>
       <c r="B515" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C515">
         <v>2</v>
@@ -12584,7 +12377,7 @@
         <v>8</v>
       </c>
       <c r="B516" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C516">
         <v>2</v>
@@ -12607,7 +12400,7 @@
         <v>8</v>
       </c>
       <c r="B517" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C517">
         <v>2</v>
@@ -12630,7 +12423,7 @@
         <v>8</v>
       </c>
       <c r="B518" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C518">
         <v>2</v>
@@ -12653,7 +12446,7 @@
         <v>8</v>
       </c>
       <c r="B519" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C519">
         <v>2</v>
@@ -12676,7 +12469,7 @@
         <v>8</v>
       </c>
       <c r="B520" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C520">
         <v>2</v>
@@ -12699,7 +12492,7 @@
         <v>8</v>
       </c>
       <c r="B521" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C521">
         <v>2</v>
@@ -12722,7 +12515,7 @@
         <v>8</v>
       </c>
       <c r="B522" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C522">
         <v>2</v>
@@ -12745,7 +12538,7 @@
         <v>8</v>
       </c>
       <c r="B523" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C523">
         <v>2</v>
@@ -12768,7 +12561,7 @@
         <v>8</v>
       </c>
       <c r="B524" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C524">
         <v>2</v>
@@ -12791,7 +12584,7 @@
         <v>8</v>
       </c>
       <c r="B525" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C525">
         <v>2</v>
@@ -12814,7 +12607,7 @@
         <v>8</v>
       </c>
       <c r="B526" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C526">
         <v>2</v>
@@ -12837,7 +12630,7 @@
         <v>8</v>
       </c>
       <c r="B527" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C527">
         <v>2</v>
@@ -12860,7 +12653,7 @@
         <v>8</v>
       </c>
       <c r="B528" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C528">
         <v>2</v>
@@ -12883,7 +12676,7 @@
         <v>8</v>
       </c>
       <c r="B529" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C529">
         <v>2</v>
@@ -12906,7 +12699,7 @@
         <v>8</v>
       </c>
       <c r="B530" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C530">
         <v>2</v>
@@ -12929,7 +12722,7 @@
         <v>8</v>
       </c>
       <c r="B531" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C531">
         <v>2</v>
@@ -12952,7 +12745,7 @@
         <v>8</v>
       </c>
       <c r="B532" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C532">
         <v>2</v>
@@ -12975,7 +12768,7 @@
         <v>8</v>
       </c>
       <c r="B533" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C533">
         <v>2</v>
@@ -12998,7 +12791,7 @@
         <v>8</v>
       </c>
       <c r="B534" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C534">
         <v>2</v>
@@ -13021,7 +12814,7 @@
         <v>8</v>
       </c>
       <c r="B535" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C535">
         <v>2</v>
@@ -13044,7 +12837,7 @@
         <v>8</v>
       </c>
       <c r="B536" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C536">
         <v>2</v>
@@ -13067,7 +12860,7 @@
         <v>8</v>
       </c>
       <c r="B537" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C537">
         <v>2</v>
@@ -13090,7 +12883,7 @@
         <v>8</v>
       </c>
       <c r="B538" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C538">
         <v>2</v>
@@ -13113,7 +12906,7 @@
         <v>8</v>
       </c>
       <c r="B539" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C539">
         <v>2</v>
@@ -13136,7 +12929,7 @@
         <v>8</v>
       </c>
       <c r="B540" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C540">
         <v>2</v>
@@ -13159,7 +12952,7 @@
         <v>8</v>
       </c>
       <c r="B541" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C541">
         <v>2</v>
@@ -13182,7 +12975,7 @@
         <v>8</v>
       </c>
       <c r="B542" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C542">
         <v>2</v>
@@ -13205,7 +12998,7 @@
         <v>8</v>
       </c>
       <c r="B543" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C543">
         <v>2</v>
@@ -13228,7 +13021,7 @@
         <v>8</v>
       </c>
       <c r="B544" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C544">
         <v>2</v>
@@ -13251,7 +13044,7 @@
         <v>8</v>
       </c>
       <c r="B545" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C545">
         <v>2</v>
@@ -13274,7 +13067,7 @@
         <v>8</v>
       </c>
       <c r="B546" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C546">
         <v>2</v>
@@ -13297,7 +13090,7 @@
         <v>8</v>
       </c>
       <c r="B547" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C547">
         <v>2</v>
@@ -13320,7 +13113,7 @@
         <v>8</v>
       </c>
       <c r="B548" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C548">
         <v>2</v>
@@ -13343,7 +13136,7 @@
         <v>8</v>
       </c>
       <c r="B549" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C549">
         <v>2</v>
@@ -13366,7 +13159,7 @@
         <v>8</v>
       </c>
       <c r="B550" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C550">
         <v>2</v>
@@ -13389,7 +13182,7 @@
         <v>8</v>
       </c>
       <c r="B551" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C551">
         <v>2</v>
@@ -13412,7 +13205,7 @@
         <v>8</v>
       </c>
       <c r="B552" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C552">
         <v>2</v>
@@ -13435,7 +13228,7 @@
         <v>8</v>
       </c>
       <c r="B553" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C553">
         <v>2</v>
@@ -13458,7 +13251,7 @@
         <v>8</v>
       </c>
       <c r="B554" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C554">
         <v>2</v>
@@ -13481,7 +13274,7 @@
         <v>8</v>
       </c>
       <c r="B555" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C555">
         <v>2</v>
@@ -13504,7 +13297,7 @@
         <v>8</v>
       </c>
       <c r="B556" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C556">
         <v>2</v>
@@ -13527,7 +13320,7 @@
         <v>8</v>
       </c>
       <c r="B557" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C557">
         <v>1</v>
@@ -13550,7 +13343,7 @@
         <v>8</v>
       </c>
       <c r="B558" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C558">
         <v>1</v>
@@ -13573,7 +13366,7 @@
         <v>8</v>
       </c>
       <c r="B559" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C559">
         <v>1</v>
@@ -13596,7 +13389,7 @@
         <v>8</v>
       </c>
       <c r="B560" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C560">
         <v>1</v>
@@ -13619,7 +13412,7 @@
         <v>8</v>
       </c>
       <c r="B561" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C561">
         <v>1</v>
@@ -13642,7 +13435,7 @@
         <v>8</v>
       </c>
       <c r="B562" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C562">
         <v>1</v>
@@ -13665,7 +13458,7 @@
         <v>8</v>
       </c>
       <c r="B563" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C563">
         <v>1</v>
@@ -13688,7 +13481,7 @@
         <v>8</v>
       </c>
       <c r="B564" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C564">
         <v>1</v>
@@ -13711,7 +13504,7 @@
         <v>8</v>
       </c>
       <c r="B565" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C565">
         <v>1</v>
@@ -13734,7 +13527,7 @@
         <v>8</v>
       </c>
       <c r="B566" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C566">
         <v>1</v>
@@ -13757,7 +13550,7 @@
         <v>8</v>
       </c>
       <c r="B567" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C567">
         <v>1</v>
@@ -13780,7 +13573,7 @@
         <v>8</v>
       </c>
       <c r="B568" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C568">
         <v>1</v>
@@ -13803,7 +13596,7 @@
         <v>8</v>
       </c>
       <c r="B569" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C569">
         <v>1</v>
@@ -13826,7 +13619,7 @@
         <v>8</v>
       </c>
       <c r="B570" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C570">
         <v>1</v>
@@ -13849,7 +13642,7 @@
         <v>8</v>
       </c>
       <c r="B571" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C571">
         <v>1</v>
@@ -13872,7 +13665,7 @@
         <v>8</v>
       </c>
       <c r="B572" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C572">
         <v>1</v>
@@ -13895,7 +13688,7 @@
         <v>8</v>
       </c>
       <c r="B573" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C573">
         <v>1</v>
@@ -13918,7 +13711,7 @@
         <v>8</v>
       </c>
       <c r="B574" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C574">
         <v>1</v>
@@ -13941,7 +13734,7 @@
         <v>8</v>
       </c>
       <c r="B575" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C575">
         <v>1</v>
@@ -13964,7 +13757,7 @@
         <v>8</v>
       </c>
       <c r="B576" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C576">
         <v>1</v>
@@ -13987,7 +13780,7 @@
         <v>8</v>
       </c>
       <c r="B577" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C577">
         <v>1</v>
@@ -14010,7 +13803,7 @@
         <v>8</v>
       </c>
       <c r="B578" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C578">
         <v>1</v>
@@ -14033,7 +13826,7 @@
         <v>8</v>
       </c>
       <c r="B579" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C579">
         <v>1</v>
@@ -14056,7 +13849,7 @@
         <v>8</v>
       </c>
       <c r="B580" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C580">
         <v>1</v>
@@ -14079,7 +13872,7 @@
         <v>8</v>
       </c>
       <c r="B581" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C581">
         <v>1</v>
@@ -14102,7 +13895,7 @@
         <v>8</v>
       </c>
       <c r="B582" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C582">
         <v>1</v>
@@ -14125,7 +13918,7 @@
         <v>8</v>
       </c>
       <c r="B583" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C583">
         <v>1</v>
@@ -14148,7 +13941,7 @@
         <v>8</v>
       </c>
       <c r="B584" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -14171,7 +13964,7 @@
         <v>8</v>
       </c>
       <c r="B585" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C585">
         <v>1</v>
@@ -14194,7 +13987,7 @@
         <v>8</v>
       </c>
       <c r="B586" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C586">
         <v>1</v>
@@ -14217,7 +14010,7 @@
         <v>8</v>
       </c>
       <c r="B587" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -14240,7 +14033,7 @@
         <v>8</v>
       </c>
       <c r="B588" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C588">
         <v>1</v>
@@ -14263,7 +14056,7 @@
         <v>8</v>
       </c>
       <c r="B589" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C589">
         <v>1</v>
@@ -14286,7 +14079,7 @@
         <v>8</v>
       </c>
       <c r="B590" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C590">
         <v>1</v>
@@ -14309,7 +14102,7 @@
         <v>8</v>
       </c>
       <c r="B591" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C591">
         <v>1</v>
@@ -14332,7 +14125,7 @@
         <v>8</v>
       </c>
       <c r="B592" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C592">
         <v>1</v>
@@ -14355,7 +14148,7 @@
         <v>8</v>
       </c>
       <c r="B593" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C593">
         <v>1</v>
@@ -14378,7 +14171,7 @@
         <v>8</v>
       </c>
       <c r="B594" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C594">
         <v>1</v>
@@ -14401,7 +14194,7 @@
         <v>8</v>
       </c>
       <c r="B595" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C595">
         <v>1</v>
@@ -14424,7 +14217,7 @@
         <v>8</v>
       </c>
       <c r="B596" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C596">
         <v>1</v>
@@ -14447,7 +14240,7 @@
         <v>8</v>
       </c>
       <c r="B597" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C597">
         <v>1</v>
@@ -14470,7 +14263,7 @@
         <v>8</v>
       </c>
       <c r="B598" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C598">
         <v>1</v>
@@ -14493,7 +14286,7 @@
         <v>8</v>
       </c>
       <c r="B599" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C599">
         <v>1</v>
@@ -14516,7 +14309,7 @@
         <v>8</v>
       </c>
       <c r="B600" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C600">
         <v>1</v>
@@ -14539,7 +14332,7 @@
         <v>8</v>
       </c>
       <c r="B601" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -14562,7 +14355,7 @@
         <v>8</v>
       </c>
       <c r="B602" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C602">
         <v>1</v>
@@ -14585,7 +14378,7 @@
         <v>8</v>
       </c>
       <c r="B603" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C603">
         <v>1</v>
@@ -14608,7 +14401,7 @@
         <v>8</v>
       </c>
       <c r="B604" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C604">
         <v>1</v>
@@ -14631,7 +14424,7 @@
         <v>8</v>
       </c>
       <c r="B605" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C605">
         <v>1</v>
@@ -14654,7 +14447,7 @@
         <v>8</v>
       </c>
       <c r="B606" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C606">
         <v>1</v>
@@ -14677,7 +14470,7 @@
         <v>8</v>
       </c>
       <c r="B607" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C607">
         <v>1</v>
@@ -14700,7 +14493,7 @@
         <v>8</v>
       </c>
       <c r="B608" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C608">
         <v>1</v>
@@ -14723,7 +14516,7 @@
         <v>8</v>
       </c>
       <c r="B609" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C609">
         <v>1</v>
@@ -14746,7 +14539,7 @@
         <v>8</v>
       </c>
       <c r="B610" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C610">
         <v>1</v>
@@ -14769,7 +14562,7 @@
         <v>8</v>
       </c>
       <c r="B611" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C611">
         <v>1</v>
@@ -14792,7 +14585,7 @@
         <v>8</v>
       </c>
       <c r="B612" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C612">
         <v>1</v>
@@ -14815,7 +14608,7 @@
         <v>8</v>
       </c>
       <c r="B613" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C613">
         <v>1</v>
@@ -14838,7 +14631,7 @@
         <v>8</v>
       </c>
       <c r="B614" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -14861,7 +14654,7 @@
         <v>8</v>
       </c>
       <c r="B615" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C615">
         <v>1</v>
@@ -14884,7 +14677,7 @@
         <v>8</v>
       </c>
       <c r="B616" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -14907,7 +14700,7 @@
         <v>8</v>
       </c>
       <c r="B617" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C617">
         <v>1</v>
@@ -14930,7 +14723,7 @@
         <v>8</v>
       </c>
       <c r="B618" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C618">
         <v>1</v>
@@ -14953,7 +14746,7 @@
         <v>8</v>
       </c>
       <c r="B619" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -14976,7 +14769,7 @@
         <v>8</v>
       </c>
       <c r="B620" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C620">
         <v>1</v>
@@ -14999,7 +14792,7 @@
         <v>8</v>
       </c>
       <c r="B621" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C621">
         <v>1</v>
@@ -15022,7 +14815,7 @@
         <v>8</v>
       </c>
       <c r="B622" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C622">
         <v>1</v>
@@ -15045,7 +14838,7 @@
         <v>8</v>
       </c>
       <c r="B623" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C623">
         <v>1</v>
@@ -15068,7 +14861,7 @@
         <v>8</v>
       </c>
       <c r="B624" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C624">
         <v>1</v>
@@ -15091,7 +14884,7 @@
         <v>8</v>
       </c>
       <c r="B625" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C625">
         <v>1</v>
@@ -15114,7 +14907,7 @@
         <v>8</v>
       </c>
       <c r="B626" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C626">
         <v>1</v>
@@ -15137,7 +14930,7 @@
         <v>8</v>
       </c>
       <c r="B627" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C627">
         <v>1</v>
@@ -15160,7 +14953,7 @@
         <v>8</v>
       </c>
       <c r="B628" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C628">
         <v>1</v>
@@ -15183,7 +14976,7 @@
         <v>8</v>
       </c>
       <c r="B629" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C629">
         <v>1</v>
@@ -15206,7 +14999,7 @@
         <v>8</v>
       </c>
       <c r="B630" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -15229,7 +15022,7 @@
         <v>8</v>
       </c>
       <c r="B631" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C631">
         <v>1</v>
@@ -15252,7 +15045,7 @@
         <v>8</v>
       </c>
       <c r="B632" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C632">
         <v>1</v>
@@ -15275,7 +15068,7 @@
         <v>8</v>
       </c>
       <c r="B633" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C633">
         <v>1</v>
@@ -15298,7 +15091,7 @@
         <v>8</v>
       </c>
       <c r="B634" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C634">
         <v>1</v>
@@ -15321,7 +15114,7 @@
         <v>8</v>
       </c>
       <c r="B635" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C635">
         <v>1</v>
@@ -15344,7 +15137,7 @@
         <v>8</v>
       </c>
       <c r="B636" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C636">
         <v>1</v>
@@ -15367,7 +15160,7 @@
         <v>8</v>
       </c>
       <c r="B637" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -15390,7 +15183,7 @@
         <v>8</v>
       </c>
       <c r="B638" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -15413,7 +15206,7 @@
         <v>8</v>
       </c>
       <c r="B639" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C639">
         <v>1</v>
@@ -15436,7 +15229,7 @@
         <v>8</v>
       </c>
       <c r="B640" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C640">
         <v>1</v>
@@ -15459,7 +15252,7 @@
         <v>8</v>
       </c>
       <c r="B641" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C641">
         <v>1</v>
@@ -15482,7 +15275,7 @@
         <v>8</v>
       </c>
       <c r="B642" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C642">
         <v>1</v>
@@ -15505,7 +15298,7 @@
         <v>8</v>
       </c>
       <c r="B643" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C643">
         <v>1</v>
@@ -15528,7 +15321,7 @@
         <v>8</v>
       </c>
       <c r="B644" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C644">
         <v>1</v>
@@ -15551,7 +15344,7 @@
         <v>8</v>
       </c>
       <c r="B645" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C645">
         <v>1</v>
@@ -15574,7 +15367,7 @@
         <v>8</v>
       </c>
       <c r="B646" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C646">
         <v>1</v>
@@ -15597,7 +15390,7 @@
         <v>8</v>
       </c>
       <c r="B647" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C647">
         <v>1</v>
@@ -15620,7 +15413,7 @@
         <v>8</v>
       </c>
       <c r="B648" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C648">
         <v>1</v>
@@ -15643,7 +15436,7 @@
         <v>8</v>
       </c>
       <c r="B649" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C649">
         <v>1</v>
@@ -15666,7 +15459,7 @@
         <v>8</v>
       </c>
       <c r="B650" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C650">
         <v>1</v>
@@ -15689,7 +15482,7 @@
         <v>8</v>
       </c>
       <c r="B651" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C651">
         <v>1</v>
@@ -15712,7 +15505,7 @@
         <v>8</v>
       </c>
       <c r="B652" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C652">
         <v>1</v>
@@ -15735,7 +15528,7 @@
         <v>8</v>
       </c>
       <c r="B653" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C653">
         <v>1</v>
@@ -15758,7 +15551,7 @@
         <v>8</v>
       </c>
       <c r="B654" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C654">
         <v>1</v>
@@ -15781,7 +15574,7 @@
         <v>8</v>
       </c>
       <c r="B655" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C655">
         <v>1</v>
@@ -15804,7 +15597,7 @@
         <v>8</v>
       </c>
       <c r="B656" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C656">
         <v>1</v>
@@ -15827,7 +15620,7 @@
         <v>8</v>
       </c>
       <c r="B657" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C657">
         <v>1</v>
@@ -15850,7 +15643,7 @@
         <v>8</v>
       </c>
       <c r="B658" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C658">
         <v>1</v>
@@ -15873,7 +15666,7 @@
         <v>8</v>
       </c>
       <c r="B659" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C659">
         <v>1</v>
@@ -15896,7 +15689,7 @@
         <v>8</v>
       </c>
       <c r="B660" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C660">
         <v>1</v>
@@ -15919,7 +15712,7 @@
         <v>8</v>
       </c>
       <c r="B661" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C661">
         <v>1</v>
@@ -15942,7 +15735,7 @@
         <v>8</v>
       </c>
       <c r="B662" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C662">
         <v>1</v>
@@ -15965,7 +15758,7 @@
         <v>8</v>
       </c>
       <c r="B663" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C663">
         <v>1</v>
@@ -15988,7 +15781,7 @@
         <v>8</v>
       </c>
       <c r="B664" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C664">
         <v>1</v>
@@ -16011,7 +15804,7 @@
         <v>8</v>
       </c>
       <c r="B665" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C665">
         <v>1</v>
@@ -16034,7 +15827,7 @@
         <v>8</v>
       </c>
       <c r="B666" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C666">
         <v>1</v>
@@ -16057,7 +15850,7 @@
         <v>8</v>
       </c>
       <c r="B667" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C667">
         <v>1</v>
@@ -16080,7 +15873,7 @@
         <v>8</v>
       </c>
       <c r="B668" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -16103,7 +15896,7 @@
         <v>8</v>
       </c>
       <c r="B669" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C669">
         <v>1</v>
@@ -16126,7 +15919,7 @@
         <v>8</v>
       </c>
       <c r="B670" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C670">
         <v>1</v>
@@ -16149,7 +15942,7 @@
         <v>8</v>
       </c>
       <c r="B671" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C671">
         <v>1</v>
@@ -16172,7 +15965,7 @@
         <v>8</v>
       </c>
       <c r="B672" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -16195,7 +15988,7 @@
         <v>8</v>
       </c>
       <c r="B673" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C673">
         <v>1</v>
@@ -16218,7 +16011,7 @@
         <v>8</v>
       </c>
       <c r="B674" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C674">
         <v>1</v>
@@ -16241,7 +16034,7 @@
         <v>8</v>
       </c>
       <c r="B675" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C675">
         <v>1</v>
@@ -16264,7 +16057,7 @@
         <v>8</v>
       </c>
       <c r="B676" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C676">
         <v>1</v>
@@ -16287,7 +16080,7 @@
         <v>8</v>
       </c>
       <c r="B677" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -16310,7 +16103,7 @@
         <v>8</v>
       </c>
       <c r="B678" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C678">
         <v>1</v>
@@ -16333,7 +16126,7 @@
         <v>8</v>
       </c>
       <c r="B679" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C679">
         <v>1</v>
@@ -16356,7 +16149,7 @@
         <v>8</v>
       </c>
       <c r="B680" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C680">
         <v>1</v>
@@ -16379,7 +16172,7 @@
         <v>8</v>
       </c>
       <c r="B681" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C681">
         <v>1</v>
@@ -16402,7 +16195,7 @@
         <v>8</v>
       </c>
       <c r="B682" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C682">
         <v>1</v>
@@ -16425,7 +16218,7 @@
         <v>8</v>
       </c>
       <c r="B683" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C683">
         <v>1</v>
@@ -16448,7 +16241,7 @@
         <v>8</v>
       </c>
       <c r="B684" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C684">
         <v>1</v>
@@ -16471,7 +16264,7 @@
         <v>8</v>
       </c>
       <c r="B685" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -16494,7 +16287,7 @@
         <v>8</v>
       </c>
       <c r="B686" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C686">
         <v>1</v>
@@ -16517,7 +16310,7 @@
         <v>8</v>
       </c>
       <c r="B687" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C687">
         <v>1</v>
@@ -16540,7 +16333,7 @@
         <v>8</v>
       </c>
       <c r="B688" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C688">
         <v>1</v>
@@ -16563,7 +16356,7 @@
         <v>8</v>
       </c>
       <c r="B689" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C689">
         <v>1</v>
@@ -16586,7 +16379,7 @@
         <v>8</v>
       </c>
       <c r="B690" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C690">
         <v>1</v>
@@ -16609,7 +16402,7 @@
         <v>8</v>
       </c>
       <c r="B691" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C691">
         <v>1</v>
@@ -16632,7 +16425,7 @@
         <v>8</v>
       </c>
       <c r="B692" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C692">
         <v>1</v>
@@ -16655,7 +16448,7 @@
         <v>8</v>
       </c>
       <c r="B693" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C693">
         <v>1</v>
@@ -16678,7 +16471,7 @@
         <v>8</v>
       </c>
       <c r="B694" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C694">
         <v>1</v>
@@ -16701,7 +16494,7 @@
         <v>8</v>
       </c>
       <c r="B695" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C695">
         <v>1</v>
@@ -16724,7 +16517,7 @@
         <v>8</v>
       </c>
       <c r="B696" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C696">
         <v>1</v>
@@ -16747,7 +16540,7 @@
         <v>8</v>
       </c>
       <c r="B697" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C697">
         <v>1</v>
@@ -16770,7 +16563,7 @@
         <v>8</v>
       </c>
       <c r="B698" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C698">
         <v>1</v>
@@ -16793,7 +16586,7 @@
         <v>8</v>
       </c>
       <c r="B699" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C699">
         <v>1</v>
@@ -16816,7 +16609,7 @@
         <v>8</v>
       </c>
       <c r="B700" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C700">
         <v>1</v>
@@ -16839,7 +16632,7 @@
         <v>8</v>
       </c>
       <c r="B701" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C701">
         <v>1</v>
@@ -16862,7 +16655,7 @@
         <v>8</v>
       </c>
       <c r="B702" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C702">
         <v>1</v>
@@ -16885,7 +16678,7 @@
         <v>8</v>
       </c>
       <c r="B703" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C703">
         <v>1</v>
@@ -16908,7 +16701,7 @@
         <v>8</v>
       </c>
       <c r="B704" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C704">
         <v>1</v>
@@ -16931,7 +16724,7 @@
         <v>8</v>
       </c>
       <c r="B705" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -16954,7 +16747,7 @@
         <v>8</v>
       </c>
       <c r="B706" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -16977,7 +16770,7 @@
         <v>8</v>
       </c>
       <c r="B707" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C707">
         <v>1</v>
@@ -17000,7 +16793,7 @@
         <v>8</v>
       </c>
       <c r="B708" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C708">
         <v>1</v>
@@ -17023,7 +16816,7 @@
         <v>8</v>
       </c>
       <c r="B709" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C709">
         <v>1</v>
@@ -17046,7 +16839,7 @@
         <v>8</v>
       </c>
       <c r="B710" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C710">
         <v>1</v>
@@ -17069,7 +16862,7 @@
         <v>8</v>
       </c>
       <c r="B711" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C711">
         <v>1</v>
@@ -17092,7 +16885,7 @@
         <v>8</v>
       </c>
       <c r="B712" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C712">
         <v>1</v>
@@ -17115,7 +16908,7 @@
         <v>8</v>
       </c>
       <c r="B713" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C713">
         <v>1</v>
@@ -17138,7 +16931,7 @@
         <v>8</v>
       </c>
       <c r="B714" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C714">
         <v>1</v>
@@ -17161,7 +16954,7 @@
         <v>8</v>
       </c>
       <c r="B715" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C715">
         <v>1</v>
@@ -17184,7 +16977,7 @@
         <v>8</v>
       </c>
       <c r="B716" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C716">
         <v>1</v>
@@ -17207,7 +17000,7 @@
         <v>8</v>
       </c>
       <c r="B717" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C717">
         <v>1</v>
@@ -17230,7 +17023,7 @@
         <v>8</v>
       </c>
       <c r="B718" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C718">
         <v>1</v>
@@ -17253,7 +17046,7 @@
         <v>8</v>
       </c>
       <c r="B719" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C719">
         <v>1</v>
@@ -17276,7 +17069,7 @@
         <v>8</v>
       </c>
       <c r="B720" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C720">
         <v>1</v>
@@ -17299,7 +17092,7 @@
         <v>8</v>
       </c>
       <c r="B721" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C721">
         <v>1</v>
@@ -17322,7 +17115,7 @@
         <v>8</v>
       </c>
       <c r="B722" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C722">
         <v>1</v>
@@ -17345,7 +17138,7 @@
         <v>8</v>
       </c>
       <c r="B723" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C723">
         <v>1</v>
@@ -17368,7 +17161,7 @@
         <v>8</v>
       </c>
       <c r="B724" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C724">
         <v>1</v>
@@ -17391,7 +17184,7 @@
         <v>8</v>
       </c>
       <c r="B725" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C725">
         <v>1</v>
@@ -17414,7 +17207,7 @@
         <v>8</v>
       </c>
       <c r="B726" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C726">
         <v>1</v>
@@ -17437,7 +17230,7 @@
         <v>8</v>
       </c>
       <c r="B727" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C727">
         <v>1</v>
@@ -17460,7 +17253,7 @@
         <v>8</v>
       </c>
       <c r="B728" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C728">
         <v>1</v>
@@ -17483,7 +17276,7 @@
         <v>8</v>
       </c>
       <c r="B729" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C729">
         <v>1</v>
@@ -17506,7 +17299,7 @@
         <v>8</v>
       </c>
       <c r="B730" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C730">
         <v>1</v>
@@ -17529,7 +17322,7 @@
         <v>8</v>
       </c>
       <c r="B731" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C731">
         <v>1</v>
@@ -17552,7 +17345,7 @@
         <v>8</v>
       </c>
       <c r="B732" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C732">
         <v>1</v>
@@ -17575,7 +17368,7 @@
         <v>8</v>
       </c>
       <c r="B733" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C733">
         <v>1</v>
@@ -17598,7 +17391,7 @@
         <v>8</v>
       </c>
       <c r="B734" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C734">
         <v>1</v>
@@ -17621,7 +17414,7 @@
         <v>8</v>
       </c>
       <c r="B735" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C735">
         <v>1</v>
@@ -17644,7 +17437,7 @@
         <v>8</v>
       </c>
       <c r="B736" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C736">
         <v>1</v>
@@ -17667,7 +17460,7 @@
         <v>8</v>
       </c>
       <c r="B737" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C737">
         <v>1</v>
@@ -17690,7 +17483,7 @@
         <v>8</v>
       </c>
       <c r="B738" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C738">
         <v>1</v>
@@ -17713,7 +17506,7 @@
         <v>8</v>
       </c>
       <c r="B739" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C739">
         <v>1</v>
@@ -17736,7 +17529,7 @@
         <v>8</v>
       </c>
       <c r="B740" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C740">
         <v>1</v>
@@ -17759,7 +17552,7 @@
         <v>8</v>
       </c>
       <c r="B741" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C741">
         <v>1</v>
@@ -17782,7 +17575,7 @@
         <v>8</v>
       </c>
       <c r="B742" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C742">
         <v>1</v>
@@ -17805,7 +17598,7 @@
         <v>8</v>
       </c>
       <c r="B743" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C743">
         <v>1</v>
@@ -17828,7 +17621,7 @@
         <v>8</v>
       </c>
       <c r="B744" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C744">
         <v>1</v>
@@ -17851,7 +17644,7 @@
         <v>8</v>
       </c>
       <c r="B745" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C745">
         <v>1</v>
@@ -17874,7 +17667,7 @@
         <v>8</v>
       </c>
       <c r="B746" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C746">
         <v>1</v>
@@ -17897,7 +17690,7 @@
         <v>8</v>
       </c>
       <c r="B747" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C747">
         <v>1</v>
@@ -17920,7 +17713,7 @@
         <v>8</v>
       </c>
       <c r="B748" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C748">
         <v>1</v>
@@ -17943,7 +17736,7 @@
         <v>8</v>
       </c>
       <c r="B749" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C749">
         <v>1</v>
@@ -17966,7 +17759,7 @@
         <v>8</v>
       </c>
       <c r="B750" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C750">
         <v>1</v>
@@ -17989,7 +17782,7 @@
         <v>8</v>
       </c>
       <c r="B751" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C751">
         <v>1</v>
@@ -18012,7 +17805,7 @@
         <v>8</v>
       </c>
       <c r="B752" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C752">
         <v>1</v>
@@ -18035,7 +17828,7 @@
         <v>8</v>
       </c>
       <c r="B753" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C753">
         <v>1</v>
@@ -18058,7 +17851,7 @@
         <v>8</v>
       </c>
       <c r="B754" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C754">
         <v>1</v>
@@ -18081,7 +17874,7 @@
         <v>8</v>
       </c>
       <c r="B755" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C755">
         <v>1</v>
@@ -18104,7 +17897,7 @@
         <v>8</v>
       </c>
       <c r="B756" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C756">
         <v>1</v>
@@ -18127,7 +17920,7 @@
         <v>8</v>
       </c>
       <c r="B757" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C757">
         <v>2</v>
@@ -18150,7 +17943,7 @@
         <v>8</v>
       </c>
       <c r="B758" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C758">
         <v>2</v>
@@ -18173,7 +17966,7 @@
         <v>8</v>
       </c>
       <c r="B759" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C759">
         <v>2</v>
@@ -18196,7 +17989,7 @@
         <v>8</v>
       </c>
       <c r="B760" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C760">
         <v>2</v>
@@ -18219,7 +18012,7 @@
         <v>8</v>
       </c>
       <c r="B761" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C761">
         <v>2</v>
@@ -18242,7 +18035,7 @@
         <v>8</v>
       </c>
       <c r="B762" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C762">
         <v>2</v>
@@ -18265,7 +18058,7 @@
         <v>8</v>
       </c>
       <c r="B763" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C763">
         <v>2</v>
@@ -18288,7 +18081,7 @@
         <v>8</v>
       </c>
       <c r="B764" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C764">
         <v>2</v>
@@ -18311,7 +18104,7 @@
         <v>8</v>
       </c>
       <c r="B765" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C765">
         <v>2</v>
@@ -18334,7 +18127,7 @@
         <v>8</v>
       </c>
       <c r="B766" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C766">
         <v>2</v>
@@ -18357,7 +18150,7 @@
         <v>8</v>
       </c>
       <c r="B767" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C767">
         <v>2</v>
@@ -18380,7 +18173,7 @@
         <v>8</v>
       </c>
       <c r="B768" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C768">
         <v>2</v>
@@ -18403,7 +18196,7 @@
         <v>8</v>
       </c>
       <c r="B769" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C769">
         <v>2</v>
@@ -18426,7 +18219,7 @@
         <v>8</v>
       </c>
       <c r="B770" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C770">
         <v>2</v>
@@ -18449,7 +18242,7 @@
         <v>8</v>
       </c>
       <c r="B771" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C771">
         <v>2</v>
@@ -18472,7 +18265,7 @@
         <v>8</v>
       </c>
       <c r="B772" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C772">
         <v>2</v>
@@ -18495,7 +18288,7 @@
         <v>8</v>
       </c>
       <c r="B773" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C773">
         <v>2</v>
@@ -18518,7 +18311,7 @@
         <v>8</v>
       </c>
       <c r="B774" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C774">
         <v>2</v>
@@ -18541,7 +18334,7 @@
         <v>8</v>
       </c>
       <c r="B775" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C775">
         <v>2</v>
@@ -18564,7 +18357,7 @@
         <v>8</v>
       </c>
       <c r="B776" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C776">
         <v>2</v>
@@ -18587,7 +18380,7 @@
         <v>8</v>
       </c>
       <c r="B777" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C777">
         <v>2</v>
@@ -18610,7 +18403,7 @@
         <v>8</v>
       </c>
       <c r="B778" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C778">
         <v>2</v>
@@ -18633,7 +18426,7 @@
         <v>8</v>
       </c>
       <c r="B779" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C779">
         <v>2</v>
@@ -18656,7 +18449,7 @@
         <v>8</v>
       </c>
       <c r="B780" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C780">
         <v>2</v>
@@ -18679,7 +18472,7 @@
         <v>8</v>
       </c>
       <c r="B781" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C781">
         <v>2</v>
@@ -18702,7 +18495,7 @@
         <v>8</v>
       </c>
       <c r="B782" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C782">
         <v>2</v>
@@ -18725,7 +18518,7 @@
         <v>8</v>
       </c>
       <c r="B783" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C783">
         <v>2</v>
@@ -18748,7 +18541,7 @@
         <v>8</v>
       </c>
       <c r="B784" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C784">
         <v>2</v>
@@ -18771,7 +18564,7 @@
         <v>8</v>
       </c>
       <c r="B785" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C785">
         <v>2</v>
@@ -18794,7 +18587,7 @@
         <v>8</v>
       </c>
       <c r="B786" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C786">
         <v>2</v>
@@ -18817,7 +18610,7 @@
         <v>8</v>
       </c>
       <c r="B787" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C787">
         <v>2</v>
@@ -18840,7 +18633,7 @@
         <v>8</v>
       </c>
       <c r="B788" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C788">
         <v>2</v>
@@ -18863,7 +18656,7 @@
         <v>8</v>
       </c>
       <c r="B789" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C789">
         <v>2</v>
@@ -18886,7 +18679,7 @@
         <v>8</v>
       </c>
       <c r="B790" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C790">
         <v>2</v>
@@ -18909,7 +18702,7 @@
         <v>8</v>
       </c>
       <c r="B791" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C791">
         <v>2</v>
@@ -18932,7 +18725,7 @@
         <v>8</v>
       </c>
       <c r="B792" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C792">
         <v>2</v>
@@ -18955,7 +18748,7 @@
         <v>8</v>
       </c>
       <c r="B793" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C793">
         <v>2</v>
@@ -18978,7 +18771,7 @@
         <v>8</v>
       </c>
       <c r="B794" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C794">
         <v>2</v>
@@ -19001,7 +18794,7 @@
         <v>8</v>
       </c>
       <c r="B795" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C795">
         <v>2</v>
@@ -19024,7 +18817,7 @@
         <v>8</v>
       </c>
       <c r="B796" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C796">
         <v>2</v>
@@ -19047,7 +18840,7 @@
         <v>8</v>
       </c>
       <c r="B797" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C797">
         <v>2</v>
@@ -19070,7 +18863,7 @@
         <v>8</v>
       </c>
       <c r="B798" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C798">
         <v>2</v>
@@ -19093,7 +18886,7 @@
         <v>8</v>
       </c>
       <c r="B799" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C799">
         <v>2</v>
@@ -19116,7 +18909,7 @@
         <v>8</v>
       </c>
       <c r="B800" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C800">
         <v>2</v>
@@ -19139,7 +18932,7 @@
         <v>8</v>
       </c>
       <c r="B801" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C801">
         <v>2</v>
@@ -19162,7 +18955,7 @@
         <v>8</v>
       </c>
       <c r="B802" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C802">
         <v>2</v>
@@ -19185,7 +18978,7 @@
         <v>8</v>
       </c>
       <c r="B803" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C803">
         <v>2</v>
@@ -19208,7 +19001,7 @@
         <v>8</v>
       </c>
       <c r="B804" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C804">
         <v>2</v>
@@ -19231,7 +19024,7 @@
         <v>8</v>
       </c>
       <c r="B805" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C805">
         <v>2</v>
@@ -19254,7 +19047,7 @@
         <v>8</v>
       </c>
       <c r="B806" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C806">
         <v>2</v>
@@ -19277,7 +19070,7 @@
         <v>8</v>
       </c>
       <c r="B807" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C807">
         <v>2</v>
@@ -19300,7 +19093,7 @@
         <v>8</v>
       </c>
       <c r="B808" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C808">
         <v>2</v>
@@ -19323,7 +19116,7 @@
         <v>8</v>
       </c>
       <c r="B809" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C809">
         <v>2</v>
@@ -19346,7 +19139,7 @@
         <v>8</v>
       </c>
       <c r="B810" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C810">
         <v>2</v>
@@ -19369,7 +19162,7 @@
         <v>8</v>
       </c>
       <c r="B811" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C811">
         <v>2</v>
@@ -19392,7 +19185,7 @@
         <v>8</v>
       </c>
       <c r="B812" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C812">
         <v>2</v>
@@ -19415,7 +19208,7 @@
         <v>8</v>
       </c>
       <c r="B813" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="C813">
         <v>2</v>
@@ -19438,7 +19231,7 @@
         <v>8</v>
       </c>
       <c r="B814" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C814">
         <v>2</v>
@@ -19461,7 +19254,7 @@
         <v>8</v>
       </c>
       <c r="B815" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C815">
         <v>2</v>
@@ -19484,7 +19277,7 @@
         <v>8</v>
       </c>
       <c r="B816" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C816">
         <v>2</v>
@@ -19507,7 +19300,7 @@
         <v>8</v>
       </c>
       <c r="B817" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C817">
         <v>2</v>
@@ -19530,7 +19323,7 @@
         <v>8</v>
       </c>
       <c r="B818" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C818">
         <v>2</v>
@@ -19553,7 +19346,7 @@
         <v>8</v>
       </c>
       <c r="B819" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C819">
         <v>2</v>
@@ -19576,7 +19369,7 @@
         <v>8</v>
       </c>
       <c r="B820" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C820">
         <v>2</v>
@@ -19599,7 +19392,7 @@
         <v>8</v>
       </c>
       <c r="B821" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="C821">
         <v>2</v>
@@ -19622,7 +19415,7 @@
         <v>8</v>
       </c>
       <c r="B822" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C822">
         <v>2</v>
@@ -19645,7 +19438,7 @@
         <v>8</v>
       </c>
       <c r="B823" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C823">
         <v>2</v>
@@ -19668,7 +19461,7 @@
         <v>8</v>
       </c>
       <c r="B824" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C824">
         <v>2</v>
@@ -19691,7 +19484,7 @@
         <v>8</v>
       </c>
       <c r="B825" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C825">
         <v>2</v>
@@ -19714,7 +19507,7 @@
         <v>8</v>
       </c>
       <c r="B826" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C826">
         <v>2</v>
@@ -19737,7 +19530,7 @@
         <v>8</v>
       </c>
       <c r="B827" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C827">
         <v>2</v>
@@ -19760,7 +19553,7 @@
         <v>8</v>
       </c>
       <c r="B828" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C828">
         <v>2</v>
@@ -19783,7 +19576,7 @@
         <v>8</v>
       </c>
       <c r="B829" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C829">
         <v>2</v>
@@ -19806,7 +19599,7 @@
         <v>8</v>
       </c>
       <c r="B830" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C830">
         <v>2</v>
@@ -19829,7 +19622,7 @@
         <v>8</v>
       </c>
       <c r="B831" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="C831">
         <v>2</v>
@@ -19852,7 +19645,7 @@
         <v>8</v>
       </c>
       <c r="B832" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C832">
         <v>2</v>
@@ -19869,7 +19662,7 @@
         <v>8</v>
       </c>
       <c r="B833" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C833">
         <v>2</v>
@@ -19892,7 +19685,7 @@
         <v>8</v>
       </c>
       <c r="B834" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C834">
         <v>2</v>
@@ -19915,7 +19708,7 @@
         <v>8</v>
       </c>
       <c r="B835" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C835">
         <v>2</v>
@@ -19938,7 +19731,7 @@
         <v>8</v>
       </c>
       <c r="B836" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C836">
         <v>2</v>
@@ -19961,7 +19754,7 @@
         <v>8</v>
       </c>
       <c r="B837" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C837">
         <v>2</v>
@@ -19984,7 +19777,7 @@
         <v>8</v>
       </c>
       <c r="B838" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C838">
         <v>2</v>
@@ -20007,7 +19800,7 @@
         <v>8</v>
       </c>
       <c r="B839" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C839">
         <v>2</v>
@@ -20030,7 +19823,7 @@
         <v>8</v>
       </c>
       <c r="B840" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C840">
         <v>2</v>
@@ -20053,7 +19846,7 @@
         <v>8</v>
       </c>
       <c r="B841" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C841">
         <v>2</v>
@@ -20076,7 +19869,7 @@
         <v>8</v>
       </c>
       <c r="B842" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C842">
         <v>2</v>
@@ -20099,7 +19892,7 @@
         <v>8</v>
       </c>
       <c r="B843" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C843">
         <v>2</v>
@@ -20122,7 +19915,7 @@
         <v>8</v>
       </c>
       <c r="B844" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C844">
         <v>2</v>
@@ -20145,7 +19938,7 @@
         <v>8</v>
       </c>
       <c r="B845" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C845">
         <v>2</v>
@@ -20168,7 +19961,7 @@
         <v>8</v>
       </c>
       <c r="B846" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C846">
         <v>2</v>
@@ -20191,7 +19984,7 @@
         <v>8</v>
       </c>
       <c r="B847" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C847">
         <v>2</v>
@@ -20214,7 +20007,7 @@
         <v>8</v>
       </c>
       <c r="B848" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C848">
         <v>2</v>
@@ -20237,7 +20030,7 @@
         <v>8</v>
       </c>
       <c r="B849" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C849">
         <v>2</v>
@@ -20260,7 +20053,7 @@
         <v>8</v>
       </c>
       <c r="B850" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C850">
         <v>2</v>
@@ -20283,7 +20076,7 @@
         <v>8</v>
       </c>
       <c r="B851" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C851">
         <v>2</v>
@@ -20306,7 +20099,7 @@
         <v>8</v>
       </c>
       <c r="B852" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C852">
         <v>2</v>
@@ -20329,7 +20122,7 @@
         <v>8</v>
       </c>
       <c r="B853" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C853">
         <v>2</v>
@@ -20352,7 +20145,7 @@
         <v>8</v>
       </c>
       <c r="B854" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C854">
         <v>2</v>
@@ -20375,7 +20168,7 @@
         <v>8</v>
       </c>
       <c r="B855" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C855">
         <v>2</v>
@@ -20398,7 +20191,7 @@
         <v>8</v>
       </c>
       <c r="B856" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C856">
         <v>2</v>
@@ -20421,7 +20214,7 @@
         <v>8</v>
       </c>
       <c r="B857" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C857">
         <v>2</v>
@@ -20444,7 +20237,7 @@
         <v>8</v>
       </c>
       <c r="B858" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C858">
         <v>2</v>
@@ -20467,7 +20260,7 @@
         <v>8</v>
       </c>
       <c r="B859" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C859">
         <v>2</v>
@@ -20490,7 +20283,7 @@
         <v>8</v>
       </c>
       <c r="B860" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C860">
         <v>2</v>
@@ -20513,7 +20306,7 @@
         <v>8</v>
       </c>
       <c r="B861" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C861">
         <v>2</v>
@@ -20536,7 +20329,7 @@
         <v>8</v>
       </c>
       <c r="B862" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C862">
         <v>2</v>
@@ -20559,7 +20352,7 @@
         <v>8</v>
       </c>
       <c r="B863" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C863">
         <v>2</v>
@@ -20582,7 +20375,7 @@
         <v>8</v>
       </c>
       <c r="B864" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C864">
         <v>2</v>
@@ -20605,7 +20398,7 @@
         <v>8</v>
       </c>
       <c r="B865" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C865">
         <v>2</v>
@@ -20628,7 +20421,7 @@
         <v>8</v>
       </c>
       <c r="B866" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C866">
         <v>2</v>
@@ -20651,7 +20444,7 @@
         <v>8</v>
       </c>
       <c r="B867" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C867">
         <v>2</v>
@@ -20674,7 +20467,7 @@
         <v>8</v>
       </c>
       <c r="B868" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C868">
         <v>2</v>
@@ -20697,7 +20490,7 @@
         <v>8</v>
       </c>
       <c r="B869" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C869">
         <v>2</v>
@@ -20720,7 +20513,7 @@
         <v>8</v>
       </c>
       <c r="B870" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C870">
         <v>2</v>
@@ -20743,7 +20536,7 @@
         <v>8</v>
       </c>
       <c r="B871" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C871">
         <v>2</v>
@@ -20766,7 +20559,7 @@
         <v>8</v>
       </c>
       <c r="B872" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C872">
         <v>2</v>
@@ -20789,7 +20582,7 @@
         <v>8</v>
       </c>
       <c r="B873" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C873">
         <v>2</v>
@@ -20812,7 +20605,7 @@
         <v>8</v>
       </c>
       <c r="B874" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C874">
         <v>2</v>
@@ -20835,7 +20628,7 @@
         <v>8</v>
       </c>
       <c r="B875" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C875">
         <v>2</v>
@@ -20858,7 +20651,7 @@
         <v>8</v>
       </c>
       <c r="B876" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C876">
         <v>2</v>
